--- a/data/excel-cnn.xlsx
+++ b/data/excel-cnn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brian/Desktop/final_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brian/UT/CNN-Classification/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6C9BA30-6BC0-5041-9B2A-83E7D5A2160F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60AE1DB-F202-7B49-AAA7-1F3C4CA47F3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="2540" windowWidth="27240" windowHeight="16440" xr2:uid="{AAB8EDB6-74A6-DE48-A2D1-49E31C498C89}"/>
+    <workbookView xWindow="2620" yWindow="5340" windowWidth="33160" windowHeight="16060" xr2:uid="{AAB8EDB6-74A6-DE48-A2D1-49E31C498C89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="282">
   <si>
     <t>id</t>
   </si>
@@ -862,6 +862,15 @@
   </si>
   <si>
     <t>wine_bottle-upside_down.jpg</t>
+  </si>
+  <si>
+    <t>vgg_correct</t>
+  </si>
+  <si>
+    <t>incep_correct</t>
+  </si>
+  <si>
+    <t>NAS_correct</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1222,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88171B2E-F442-4841-9FF4-361F2181A229}">
-  <dimension ref="A1:AJ81"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AM81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <pane xSplit="3" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1237,29 +1248,31 @@
     <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1309,67 +1322,76 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>279</v>
+      </c>
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
+      <c r="AM1" t="s">
+        <v>281</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1418,68 +1440,80 @@
       <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="str">
+        <f>IF(OR(J2="yes", M2="yes", P2="yes"), "yes", "no")</f>
+        <v>yes</v>
+      </c>
+      <c r="R2">
         <v>299</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.73</v>
       </c>
-      <c r="T2" t="s">
-        <v>41</v>
-      </c>
       <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" t="s">
         <v>40</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0.19</v>
       </c>
-      <c r="W2" t="s">
-        <v>39</v>
-      </c>
       <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" t="s">
         <v>42</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>0</v>
       </c>
-      <c r="Z2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2">
+      <c r="AA2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>IF(OR(U2="yes", X2="yes", AA2="yes"), "yes", "no")</f>
+        <v>yes</v>
+      </c>
+      <c r="AC2">
         <v>331</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>36</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>0.83</v>
       </c>
-      <c r="AD2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="s">
         <v>40</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>0.03</v>
       </c>
-      <c r="AG2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>43</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>0</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>39</v>
+      <c r="AL2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM2" t="str">
+        <f>IF(OR(AF2="yes", AI2="yes", AL2="yes"), "yes", "no")</f>
+        <v>yes</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1528,68 +1562,76 @@
       <c r="P3" t="s">
         <v>39</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="str">
+        <f>IF(OR(J3="yes", M3="yes", P3="yes"), "yes", "no")</f>
+        <v>yes</v>
+      </c>
+      <c r="R3">
         <v>299</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>36</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="T3" t="s">
-        <v>41</v>
-      </c>
       <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
         <v>40</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="W3" t="s">
-        <v>39</v>
-      </c>
       <c r="X3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" t="s">
         <v>47</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.01</v>
       </c>
-      <c r="Z3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA3">
+      <c r="AA3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" ref="AB3:AB66" si="0">IF(OR(U3="yes", X3="yes", AA3="yes"), "yes", "no")</f>
+        <v>yes</v>
+      </c>
+      <c r="AC3">
         <v>331</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>36</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>0.78</v>
       </c>
-      <c r="AD3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="s">
         <v>40</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>0.06</v>
       </c>
-      <c r="AG3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>43</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>0</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AL3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1638,68 +1680,76 @@
       <c r="P4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q67" si="1">IF(OR(J4="yes", M4="yes", P4="yes"), "yes", "no")</f>
+        <v>yes</v>
+      </c>
+      <c r="R4">
         <v>299</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>36</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.71</v>
       </c>
-      <c r="T4" t="s">
-        <v>41</v>
-      </c>
       <c r="U4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" t="s">
         <v>40</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.16</v>
       </c>
-      <c r="W4" t="s">
-        <v>39</v>
-      </c>
       <c r="X4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" t="s">
         <v>42</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>0.02</v>
       </c>
-      <c r="Z4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA4">
+      <c r="AA4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC4">
         <v>331</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>36</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>0.71</v>
       </c>
-      <c r="AD4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="s">
         <v>40</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>0.11</v>
       </c>
-      <c r="AG4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>43</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>0.02</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1748,68 +1798,76 @@
       <c r="P5" t="s">
         <v>39</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R5">
         <v>299</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>42</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.26</v>
       </c>
-      <c r="T5" t="s">
-        <v>39</v>
-      </c>
       <c r="U5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" t="s">
         <v>53</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.21</v>
       </c>
-      <c r="W5" t="s">
-        <v>39</v>
-      </c>
       <c r="X5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" t="s">
         <v>54</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>0.11</v>
       </c>
-      <c r="Z5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA5">
+      <c r="AA5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC5">
         <v>331</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>36</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>0.51</v>
       </c>
-      <c r="AD5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="s">
         <v>55</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>0.09</v>
       </c>
-      <c r="AG5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>42</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AL5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1858,68 +1916,76 @@
       <c r="P6" t="s">
         <v>39</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R6">
         <v>299</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>61</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.11</v>
       </c>
-      <c r="T6" t="s">
-        <v>39</v>
-      </c>
       <c r="U6" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" t="s">
         <v>62</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.08</v>
       </c>
-      <c r="W6" t="s">
-        <v>39</v>
-      </c>
       <c r="X6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" t="s">
         <v>63</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>0.08</v>
       </c>
-      <c r="Z6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA6">
+      <c r="AA6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC6">
         <v>331</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>64</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>0.47</v>
       </c>
-      <c r="AD6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG6" t="s">
         <v>40</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>0.27</v>
       </c>
-      <c r="AG6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>36</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>0.08</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AL6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1968,68 +2034,76 @@
       <c r="P7" t="s">
         <v>39</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R7">
         <v>299</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>36</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.85</v>
       </c>
-      <c r="T7" t="s">
-        <v>41</v>
-      </c>
       <c r="U7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" t="s">
         <v>40</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0.12</v>
       </c>
-      <c r="W7" t="s">
-        <v>39</v>
-      </c>
       <c r="X7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" t="s">
         <v>42</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>0.01</v>
       </c>
-      <c r="Z7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA7">
+      <c r="AA7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC7">
         <v>331</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>36</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>0.83</v>
       </c>
-      <c r="AD7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="s">
         <v>40</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>0.02</v>
       </c>
-      <c r="AG7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>43</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>0</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AL7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2078,68 +2152,76 @@
       <c r="P8" t="s">
         <v>39</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R8">
         <v>299</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>36</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>0.8</v>
       </c>
-      <c r="T8" t="s">
-        <v>41</v>
-      </c>
       <c r="U8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" t="s">
         <v>40</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0.09</v>
       </c>
-      <c r="W8" t="s">
-        <v>39</v>
-      </c>
       <c r="X8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y8" t="s">
         <v>42</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>0</v>
       </c>
-      <c r="Z8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA8">
+      <c r="AA8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC8">
         <v>331</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>36</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>0.84</v>
       </c>
-      <c r="AD8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="s">
         <v>40</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>0.02</v>
       </c>
-      <c r="AG8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>43</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>0</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AL8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2188,68 +2270,76 @@
       <c r="P9" t="s">
         <v>39</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R9">
         <v>299</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>36</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.77</v>
       </c>
-      <c r="T9" t="s">
-        <v>41</v>
-      </c>
       <c r="U9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" t="s">
         <v>40</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0.18</v>
       </c>
-      <c r="W9" t="s">
-        <v>39</v>
-      </c>
       <c r="X9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" t="s">
         <v>71</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>0</v>
       </c>
-      <c r="Z9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA9">
+      <c r="AA9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC9">
         <v>331</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
         <v>36</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>0.77</v>
       </c>
-      <c r="AD9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="s">
         <v>40</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>0.13</v>
       </c>
-      <c r="AG9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>72</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>0</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AL9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2298,68 +2388,76 @@
       <c r="P10" t="s">
         <v>39</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R10">
         <v>299</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>36</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.9</v>
       </c>
-      <c r="T10" t="s">
-        <v>41</v>
-      </c>
       <c r="U10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" t="s">
         <v>40</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W10" t="s">
-        <v>39</v>
-      </c>
       <c r="X10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" t="s">
         <v>42</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>0.01</v>
       </c>
-      <c r="Z10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA10">
+      <c r="AA10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC10">
         <v>331</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AD10" t="s">
         <v>36</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <v>0.8</v>
       </c>
-      <c r="AD10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="s">
         <v>40</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>0.05</v>
       </c>
-      <c r="AG10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>43</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <v>0</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AL10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2408,68 +2506,76 @@
       <c r="P11" t="s">
         <v>39</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R11">
         <v>299</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>36</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.9</v>
       </c>
-      <c r="T11" t="s">
-        <v>41</v>
-      </c>
       <c r="U11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" t="s">
         <v>40</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>0.02</v>
       </c>
-      <c r="W11" t="s">
-        <v>39</v>
-      </c>
       <c r="X11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y11" t="s">
         <v>42</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>0.01</v>
       </c>
-      <c r="Z11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA11">
+      <c r="AA11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC11">
         <v>331</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AD11" t="s">
         <v>36</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>0.84</v>
       </c>
-      <c r="AD11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="s">
         <v>40</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>0.03</v>
       </c>
-      <c r="AG11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>43</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>0</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AL11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2518,68 +2624,76 @@
       <c r="P12" t="s">
         <v>39</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R12">
         <v>299</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>77</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>0.99</v>
       </c>
-      <c r="T12" t="s">
-        <v>41</v>
-      </c>
       <c r="U12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" t="s">
         <v>81</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>39</v>
-      </c>
       <c r="X12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12" t="s">
         <v>82</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>0</v>
       </c>
-      <c r="Z12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA12">
+      <c r="AA12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC12">
         <v>331</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AD12" t="s">
         <v>77</v>
       </c>
-      <c r="AC12">
+      <c r="AE12">
         <v>0.95</v>
       </c>
-      <c r="AD12" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="s">
         <v>79</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>0</v>
       </c>
-      <c r="AG12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>54</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <v>0</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AL12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2628,68 +2742,76 @@
       <c r="P13" t="s">
         <v>39</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R13">
         <v>299</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>85</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>0.16</v>
       </c>
-      <c r="T13" t="s">
-        <v>39</v>
-      </c>
       <c r="U13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V13" t="s">
         <v>82</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>0.09</v>
       </c>
-      <c r="W13" t="s">
-        <v>39</v>
-      </c>
       <c r="X13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y13" t="s">
         <v>86</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>0.04</v>
       </c>
-      <c r="Z13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA13">
+      <c r="AA13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC13">
         <v>331</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AD13" t="s">
         <v>77</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <v>0.93</v>
       </c>
-      <c r="AD13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="s">
         <v>80</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <v>0</v>
       </c>
-      <c r="AG13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>85</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <v>0</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AL13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2738,68 +2860,76 @@
       <c r="P14" t="s">
         <v>39</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R14">
         <v>299</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>84</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>0.39</v>
       </c>
-      <c r="T14" t="s">
-        <v>39</v>
-      </c>
       <c r="U14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" t="s">
         <v>77</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>0.06</v>
       </c>
-      <c r="W14" t="s">
-        <v>41</v>
-      </c>
       <c r="X14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14" t="s">
         <v>89</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>0.05</v>
       </c>
-      <c r="Z14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA14">
+      <c r="AA14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC14">
         <v>331</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AD14" t="s">
         <v>77</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <v>0.92</v>
       </c>
-      <c r="AD14" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="s">
         <v>80</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <v>0</v>
       </c>
-      <c r="AG14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>90</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <v>0</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AL14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2848,68 +2978,76 @@
       <c r="P15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R15">
         <v>299</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>77</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>0.96</v>
       </c>
-      <c r="T15" t="s">
-        <v>41</v>
-      </c>
       <c r="U15" t="s">
+        <v>41</v>
+      </c>
+      <c r="V15" t="s">
         <v>80</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>0.01</v>
       </c>
-      <c r="W15" t="s">
-        <v>39</v>
-      </c>
       <c r="X15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y15" t="s">
         <v>93</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>0.01</v>
       </c>
-      <c r="Z15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA15">
+      <c r="AA15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC15">
         <v>331</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AD15" t="s">
         <v>77</v>
       </c>
-      <c r="AC15">
+      <c r="AE15">
         <v>0.9</v>
       </c>
-      <c r="AD15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="s">
         <v>79</v>
       </c>
-      <c r="AF15">
+      <c r="AH15">
         <v>0.01</v>
       </c>
-      <c r="AG15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>80</v>
       </c>
-      <c r="AI15">
+      <c r="AK15">
         <v>0</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AL15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2958,68 +3096,76 @@
       <c r="P16" t="s">
         <v>41</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R16">
         <v>299</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>96</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>0.45</v>
       </c>
-      <c r="T16" t="s">
-        <v>39</v>
-      </c>
       <c r="U16" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" t="s">
         <v>95</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.1</v>
       </c>
-      <c r="W16" t="s">
-        <v>39</v>
-      </c>
       <c r="X16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" t="s">
         <v>77</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA16">
+      <c r="AA16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC16">
         <v>331</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AD16" t="s">
         <v>77</v>
       </c>
-      <c r="AC16">
+      <c r="AE16">
         <v>0.84</v>
       </c>
-      <c r="AD16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="s">
         <v>79</v>
       </c>
-      <c r="AF16">
+      <c r="AH16">
         <v>0.05</v>
       </c>
-      <c r="AG16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>82</v>
       </c>
-      <c r="AI16">
+      <c r="AK16">
         <v>0</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AL16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:38">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3068,68 +3214,76 @@
       <c r="P17" t="s">
         <v>39</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R17">
         <v>299</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>77</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1</v>
       </c>
-      <c r="T17" t="s">
-        <v>41</v>
-      </c>
       <c r="U17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V17" t="s">
         <v>80</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>39</v>
-      </c>
       <c r="X17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>79</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>0</v>
       </c>
-      <c r="Z17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA17">
+      <c r="AA17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC17">
         <v>331</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AD17" t="s">
         <v>77</v>
       </c>
-      <c r="AC17">
+      <c r="AE17">
         <v>0.94</v>
       </c>
-      <c r="AD17" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="s">
         <v>54</v>
       </c>
-      <c r="AF17">
+      <c r="AH17">
         <v>0</v>
       </c>
-      <c r="AG17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>82</v>
       </c>
-      <c r="AI17">
+      <c r="AK17">
         <v>0</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AL17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:38">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3178,68 +3332,76 @@
       <c r="P18" t="s">
         <v>39</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R18">
         <v>299</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>77</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1</v>
       </c>
-      <c r="T18" t="s">
-        <v>41</v>
-      </c>
       <c r="U18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V18" t="s">
         <v>80</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>39</v>
-      </c>
       <c r="X18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y18" t="s">
         <v>100</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0</v>
       </c>
-      <c r="Z18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA18">
+      <c r="AA18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC18">
         <v>331</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AD18" t="s">
         <v>77</v>
       </c>
-      <c r="AC18">
+      <c r="AE18">
         <v>0.96</v>
       </c>
-      <c r="AD18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="s">
         <v>54</v>
       </c>
-      <c r="AF18">
+      <c r="AH18">
         <v>0</v>
       </c>
-      <c r="AG18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>82</v>
       </c>
-      <c r="AI18">
+      <c r="AK18">
         <v>0</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AL18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3288,68 +3450,76 @@
       <c r="P19" t="s">
         <v>39</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R19">
         <v>299</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>77</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.99</v>
       </c>
-      <c r="T19" t="s">
-        <v>41</v>
-      </c>
       <c r="U19" t="s">
+        <v>41</v>
+      </c>
+      <c r="V19" t="s">
         <v>81</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>39</v>
-      </c>
       <c r="X19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y19" t="s">
         <v>79</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0</v>
       </c>
-      <c r="Z19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA19">
+      <c r="AA19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC19">
         <v>331</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AD19" t="s">
         <v>77</v>
       </c>
-      <c r="AC19">
+      <c r="AE19">
         <v>0.92</v>
       </c>
-      <c r="AD19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="s">
         <v>79</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>0.02</v>
       </c>
-      <c r="AG19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>54</v>
       </c>
-      <c r="AI19">
+      <c r="AK19">
         <v>0</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AL19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3398,68 +3568,76 @@
       <c r="P20" t="s">
         <v>39</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R20">
         <v>299</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>77</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.99</v>
       </c>
-      <c r="T20" t="s">
-        <v>41</v>
-      </c>
       <c r="U20" t="s">
+        <v>41</v>
+      </c>
+      <c r="V20" t="s">
         <v>81</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>39</v>
-      </c>
       <c r="X20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y20" t="s">
         <v>79</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0</v>
       </c>
-      <c r="Z20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA20">
+      <c r="AA20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC20">
         <v>331</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AD20" t="s">
         <v>77</v>
       </c>
-      <c r="AC20">
+      <c r="AE20">
         <v>0.97</v>
       </c>
-      <c r="AD20" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="s">
         <v>54</v>
       </c>
-      <c r="AF20">
+      <c r="AH20">
         <v>0</v>
       </c>
-      <c r="AG20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>79</v>
       </c>
-      <c r="AI20">
+      <c r="AK20">
         <v>0</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AL20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3508,68 +3686,76 @@
       <c r="P21" t="s">
         <v>39</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R21">
         <v>299</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>77</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.78</v>
       </c>
-      <c r="T21" t="s">
-        <v>41</v>
-      </c>
       <c r="U21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V21" t="s">
         <v>82</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.02</v>
       </c>
-      <c r="W21" t="s">
-        <v>39</v>
-      </c>
       <c r="X21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y21" t="s">
         <v>106</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.02</v>
       </c>
-      <c r="Z21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA21">
+      <c r="AA21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC21">
         <v>331</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AD21" t="s">
         <v>77</v>
       </c>
-      <c r="AC21">
+      <c r="AE21">
         <v>0.95</v>
       </c>
-      <c r="AD21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="s">
         <v>80</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <v>0</v>
       </c>
-      <c r="AG21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>82</v>
       </c>
-      <c r="AI21">
+      <c r="AK21">
         <v>0</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AL21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3618,68 +3804,76 @@
       <c r="P22" t="s">
         <v>39</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R22">
         <v>299</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>107</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.56999999999999995</v>
       </c>
-      <c r="T22" t="s">
-        <v>41</v>
-      </c>
       <c r="U22" t="s">
+        <v>41</v>
+      </c>
+      <c r="V22" t="s">
         <v>109</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.09</v>
       </c>
-      <c r="W22" t="s">
-        <v>39</v>
-      </c>
       <c r="X22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y22" t="s">
         <v>111</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.02</v>
       </c>
-      <c r="Z22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA22">
+      <c r="AA22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC22">
         <v>331</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AD22" t="s">
         <v>107</v>
       </c>
-      <c r="AC22">
+      <c r="AE22">
         <v>0.89</v>
       </c>
-      <c r="AD22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="s">
         <v>111</v>
       </c>
-      <c r="AF22">
+      <c r="AH22">
         <v>0.02</v>
       </c>
-      <c r="AG22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>112</v>
       </c>
-      <c r="AI22">
+      <c r="AK22">
         <v>0.01</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AL22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3728,68 +3922,76 @@
       <c r="P23" t="s">
         <v>39</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R23">
         <v>299</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>107</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="T23" t="s">
-        <v>41</v>
-      </c>
       <c r="U23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V23" t="s">
         <v>111</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.31</v>
       </c>
-      <c r="W23" t="s">
-        <v>39</v>
-      </c>
       <c r="X23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y23" t="s">
         <v>112</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0</v>
       </c>
-      <c r="Z23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA23">
+      <c r="AA23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC23">
         <v>331</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AD23" t="s">
         <v>107</v>
       </c>
-      <c r="AC23">
+      <c r="AE23">
         <v>0.54</v>
       </c>
-      <c r="AD23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="s">
         <v>111</v>
       </c>
-      <c r="AF23">
+      <c r="AH23">
         <v>0.34</v>
       </c>
-      <c r="AG23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="AI23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>112</v>
       </c>
-      <c r="AI23">
+      <c r="AK23">
         <v>0.01</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AL23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3838,68 +4040,76 @@
       <c r="P24" t="s">
         <v>39</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R24">
         <v>299</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>107</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.86</v>
       </c>
-      <c r="T24" t="s">
-        <v>41</v>
-      </c>
       <c r="U24" t="s">
+        <v>41</v>
+      </c>
+      <c r="V24" t="s">
         <v>111</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.06</v>
       </c>
-      <c r="W24" t="s">
-        <v>39</v>
-      </c>
       <c r="X24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y24" t="s">
         <v>118</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0</v>
       </c>
-      <c r="Z24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA24">
+      <c r="AA24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC24">
         <v>331</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AD24" t="s">
         <v>107</v>
       </c>
-      <c r="AC24">
+      <c r="AE24">
         <v>0.52</v>
       </c>
-      <c r="AD24" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="s">
         <v>111</v>
       </c>
-      <c r="AF24">
+      <c r="AH24">
         <v>0.31</v>
       </c>
-      <c r="AG24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>112</v>
       </c>
-      <c r="AI24">
+      <c r="AK24">
         <v>0.01</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AL24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3948,68 +4158,76 @@
       <c r="P25" t="s">
         <v>39</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R25">
         <v>299</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>122</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.35</v>
       </c>
-      <c r="T25" t="s">
-        <v>39</v>
-      </c>
       <c r="U25" t="s">
+        <v>39</v>
+      </c>
+      <c r="V25" t="s">
         <v>120</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.16</v>
       </c>
-      <c r="W25" t="s">
-        <v>39</v>
-      </c>
       <c r="X25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y25" t="s">
         <v>123</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.03</v>
       </c>
-      <c r="Z25" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA25">
+      <c r="AA25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC25">
         <v>331</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AD25" t="s">
         <v>124</v>
       </c>
-      <c r="AC25">
+      <c r="AE25">
         <v>0.25</v>
       </c>
-      <c r="AD25" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG25" t="s">
         <v>110</v>
       </c>
-      <c r="AF25">
+      <c r="AH25">
         <v>0.19</v>
       </c>
-      <c r="AG25" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="AI25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>122</v>
       </c>
-      <c r="AI25">
+      <c r="AK25">
         <v>0.17</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AL25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4058,68 +4276,76 @@
       <c r="P26" t="s">
         <v>39</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R26">
         <v>299</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>129</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.18</v>
       </c>
-      <c r="T26" t="s">
-        <v>39</v>
-      </c>
       <c r="U26" t="s">
+        <v>39</v>
+      </c>
+      <c r="V26" t="s">
         <v>107</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.06</v>
       </c>
-      <c r="W26" t="s">
-        <v>41</v>
-      </c>
       <c r="X26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y26" t="s">
         <v>130</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.06</v>
       </c>
-      <c r="Z26" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA26">
+      <c r="AA26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC26">
         <v>331</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AD26" t="s">
         <v>107</v>
       </c>
-      <c r="AC26">
+      <c r="AE26">
         <v>0.84</v>
       </c>
-      <c r="AD26" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="s">
         <v>131</v>
       </c>
-      <c r="AF26">
+      <c r="AH26">
         <v>0.05</v>
       </c>
-      <c r="AG26" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>111</v>
       </c>
-      <c r="AI26">
+      <c r="AK26">
         <v>0.04</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AL26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:38">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4168,68 +4394,76 @@
       <c r="P27" t="s">
         <v>39</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R27">
         <v>299</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>107</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>0.93</v>
       </c>
-      <c r="T27" t="s">
-        <v>41</v>
-      </c>
       <c r="U27" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" t="s">
         <v>111</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.04</v>
       </c>
-      <c r="W27" t="s">
-        <v>39</v>
-      </c>
       <c r="X27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y27" t="s">
         <v>135</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0</v>
       </c>
-      <c r="Z27" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA27">
+      <c r="AA27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC27">
         <v>331</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AD27" t="s">
         <v>107</v>
       </c>
-      <c r="AC27">
+      <c r="AE27">
         <v>0.6</v>
       </c>
-      <c r="AD27" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="s">
         <v>111</v>
       </c>
-      <c r="AF27">
+      <c r="AH27">
         <v>0.26</v>
       </c>
-      <c r="AG27" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>136</v>
       </c>
-      <c r="AI27">
+      <c r="AK27">
         <v>0.01</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AL27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:38">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4278,68 +4512,76 @@
       <c r="P28" t="s">
         <v>39</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R28">
         <v>299</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>107</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>0.33</v>
       </c>
-      <c r="T28" t="s">
-        <v>41</v>
-      </c>
       <c r="U28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" t="s">
         <v>111</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.06</v>
       </c>
-      <c r="W28" t="s">
-        <v>39</v>
-      </c>
       <c r="X28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y28" t="s">
         <v>131</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.05</v>
       </c>
-      <c r="Z28" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA28">
+      <c r="AA28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB28" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC28">
         <v>331</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AD28" t="s">
         <v>107</v>
       </c>
-      <c r="AC28">
+      <c r="AE28">
         <v>0.47</v>
       </c>
-      <c r="AD28" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE28" t="s">
+      <c r="AF28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="s">
         <v>111</v>
       </c>
-      <c r="AF28">
+      <c r="AH28">
         <v>0.26</v>
       </c>
-      <c r="AG28" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ28" t="s">
         <v>135</v>
       </c>
-      <c r="AI28">
+      <c r="AK28">
         <v>0.01</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AL28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:38">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4388,68 +4630,76 @@
       <c r="P29" t="s">
         <v>39</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R29">
         <v>299</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>107</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>0.8</v>
       </c>
-      <c r="T29" t="s">
-        <v>41</v>
-      </c>
       <c r="U29" t="s">
+        <v>41</v>
+      </c>
+      <c r="V29" t="s">
         <v>131</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.02</v>
       </c>
-      <c r="W29" t="s">
-        <v>39</v>
-      </c>
       <c r="X29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y29" t="s">
         <v>111</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.02</v>
       </c>
-      <c r="Z29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA29">
+      <c r="AA29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB29" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC29">
         <v>331</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AD29" t="s">
         <v>107</v>
       </c>
-      <c r="AC29">
+      <c r="AE29">
         <v>0.78</v>
       </c>
-      <c r="AD29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE29" t="s">
+      <c r="AF29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="s">
         <v>111</v>
       </c>
-      <c r="AF29">
+      <c r="AH29">
         <v>0.08</v>
       </c>
-      <c r="AG29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH29" t="s">
+      <c r="AI29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ29" t="s">
         <v>118</v>
       </c>
-      <c r="AI29">
+      <c r="AK29">
         <v>0.02</v>
       </c>
-      <c r="AJ29" t="s">
+      <c r="AL29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:38">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4498,68 +4748,76 @@
       <c r="P30" t="s">
         <v>39</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R30">
         <v>299</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>107</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.25</v>
       </c>
-      <c r="T30" t="s">
-        <v>41</v>
-      </c>
       <c r="U30" t="s">
+        <v>41</v>
+      </c>
+      <c r="V30" t="s">
         <v>135</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.24</v>
       </c>
-      <c r="W30" t="s">
-        <v>39</v>
-      </c>
       <c r="X30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y30" t="s">
         <v>131</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.1</v>
       </c>
-      <c r="Z30" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA30">
+      <c r="AA30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB30" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC30">
         <v>331</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AD30" t="s">
         <v>107</v>
       </c>
-      <c r="AC30">
+      <c r="AE30">
         <v>0.25</v>
       </c>
-      <c r="AD30" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE30" t="s">
+      <c r="AF30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="s">
         <v>124</v>
       </c>
-      <c r="AF30">
+      <c r="AH30">
         <v>0.18</v>
       </c>
-      <c r="AG30" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH30" t="s">
+      <c r="AI30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>135</v>
       </c>
-      <c r="AI30">
+      <c r="AK30">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AJ30" t="s">
+      <c r="AL30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:38">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4608,68 +4866,76 @@
       <c r="P31" t="s">
         <v>39</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R31">
         <v>299</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>142</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0.12</v>
       </c>
-      <c r="T31" t="s">
-        <v>39</v>
-      </c>
       <c r="U31" t="s">
+        <v>39</v>
+      </c>
+      <c r="V31" t="s">
         <v>144</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.06</v>
       </c>
-      <c r="W31" t="s">
-        <v>39</v>
-      </c>
       <c r="X31" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y31" t="s">
         <v>120</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.05</v>
       </c>
-      <c r="Z31" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA31">
+      <c r="AA31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB31" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC31">
         <v>331</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AD31" t="s">
         <v>111</v>
       </c>
-      <c r="AC31">
+      <c r="AE31">
         <v>0.7</v>
       </c>
-      <c r="AD31" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE31" t="s">
+      <c r="AF31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG31" t="s">
         <v>107</v>
       </c>
-      <c r="AF31">
+      <c r="AH31">
         <v>0.11</v>
       </c>
-      <c r="AG31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH31" t="s">
+      <c r="AI31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ31" t="s">
         <v>110</v>
       </c>
-      <c r="AI31">
+      <c r="AK31">
         <v>0.02</v>
       </c>
-      <c r="AJ31" t="s">
+      <c r="AL31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:38">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4718,68 +4984,76 @@
       <c r="P32" t="s">
         <v>39</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R32">
         <v>299</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>147</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>0.21</v>
       </c>
-      <c r="T32" t="s">
-        <v>39</v>
-      </c>
       <c r="U32" t="s">
+        <v>39</v>
+      </c>
+      <c r="V32" t="s">
         <v>42</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.13</v>
       </c>
-      <c r="W32" t="s">
-        <v>39</v>
-      </c>
       <c r="X32" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y32" t="s">
         <v>148</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>0.11</v>
       </c>
-      <c r="Z32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA32">
+      <c r="AA32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB32" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC32">
         <v>331</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AD32" t="s">
         <v>149</v>
       </c>
-      <c r="AC32">
+      <c r="AE32">
         <v>0.82</v>
       </c>
-      <c r="AD32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="AF32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG32" t="s">
         <v>147</v>
       </c>
-      <c r="AF32">
+      <c r="AH32">
         <v>0.04</v>
       </c>
-      <c r="AG32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH32" t="s">
+      <c r="AI32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ32" t="s">
         <v>150</v>
       </c>
-      <c r="AI32">
+      <c r="AK32">
         <v>0.02</v>
       </c>
-      <c r="AJ32" t="s">
+      <c r="AL32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:38">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4828,68 +5102,76 @@
       <c r="P33" t="s">
         <v>39</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R33">
         <v>299</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>149</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.23</v>
       </c>
-      <c r="T33" t="s">
-        <v>39</v>
-      </c>
       <c r="U33" t="s">
+        <v>39</v>
+      </c>
+      <c r="V33" t="s">
         <v>147</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.17</v>
       </c>
-      <c r="W33" t="s">
-        <v>39</v>
-      </c>
       <c r="X33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y33" t="s">
         <v>150</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.06</v>
       </c>
-      <c r="Z33" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA33">
+      <c r="AA33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB33" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC33">
         <v>331</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AD33" t="s">
         <v>149</v>
       </c>
-      <c r="AC33">
+      <c r="AE33">
         <v>0.89</v>
       </c>
-      <c r="AD33" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE33" t="s">
+      <c r="AF33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG33" t="s">
         <v>153</v>
       </c>
-      <c r="AF33">
+      <c r="AH33">
         <v>0</v>
       </c>
-      <c r="AG33" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH33" t="s">
+      <c r="AI33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ33" t="s">
         <v>147</v>
       </c>
-      <c r="AI33">
+      <c r="AK33">
         <v>0</v>
       </c>
-      <c r="AJ33" t="s">
+      <c r="AL33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:38">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4938,68 +5220,76 @@
       <c r="P34" t="s">
         <v>39</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R34">
         <v>299</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>148</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.2</v>
       </c>
-      <c r="T34" t="s">
-        <v>39</v>
-      </c>
       <c r="U34" t="s">
+        <v>39</v>
+      </c>
+      <c r="V34" t="s">
         <v>147</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.1</v>
       </c>
-      <c r="W34" t="s">
-        <v>39</v>
-      </c>
       <c r="X34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y34" t="s">
         <v>155</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.05</v>
       </c>
-      <c r="Z34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA34">
+      <c r="AA34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB34" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC34">
         <v>331</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AD34" t="s">
         <v>149</v>
       </c>
-      <c r="AC34">
+      <c r="AE34">
         <v>0.81</v>
       </c>
-      <c r="AD34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE34" t="s">
+      <c r="AF34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG34" t="s">
         <v>147</v>
       </c>
-      <c r="AF34">
+      <c r="AH34">
         <v>0.06</v>
       </c>
-      <c r="AG34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s">
+      <c r="AI34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ34" t="s">
         <v>150</v>
       </c>
-      <c r="AI34">
+      <c r="AK34">
         <v>0.02</v>
       </c>
-      <c r="AJ34" t="s">
+      <c r="AL34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:38">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5048,68 +5338,76 @@
       <c r="P35" t="s">
         <v>39</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R35">
         <v>299</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>47</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>0.12</v>
       </c>
-      <c r="T35" t="s">
-        <v>39</v>
-      </c>
       <c r="U35" t="s">
+        <v>39</v>
+      </c>
+      <c r="V35" t="s">
         <v>40</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.08</v>
       </c>
-      <c r="W35" t="s">
-        <v>39</v>
-      </c>
       <c r="X35" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y35" t="s">
         <v>36</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>0.04</v>
       </c>
-      <c r="Z35" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA35">
+      <c r="AA35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB35" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC35">
         <v>331</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AD35" t="s">
         <v>158</v>
       </c>
-      <c r="AC35">
+      <c r="AE35">
         <v>0.3</v>
       </c>
-      <c r="AD35" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE35" t="s">
+      <c r="AF35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG35" t="s">
         <v>40</v>
       </c>
-      <c r="AF35">
+      <c r="AH35">
         <v>0.22</v>
       </c>
-      <c r="AG35" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH35" t="s">
+      <c r="AI35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ35" t="s">
         <v>55</v>
       </c>
-      <c r="AI35">
+      <c r="AK35">
         <v>0.12</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AL35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:38">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5158,68 +5456,76 @@
       <c r="P36" t="s">
         <v>39</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R36">
         <v>299</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>160</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>0.93</v>
       </c>
-      <c r="T36" t="s">
-        <v>39</v>
-      </c>
       <c r="U36" t="s">
+        <v>39</v>
+      </c>
+      <c r="V36" t="s">
         <v>63</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.02</v>
       </c>
-      <c r="W36" t="s">
-        <v>39</v>
-      </c>
       <c r="X36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y36" t="s">
         <v>116</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>0.01</v>
       </c>
-      <c r="Z36" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA36">
+      <c r="AA36" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB36" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC36">
         <v>331</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AD36" t="s">
         <v>160</v>
       </c>
-      <c r="AC36">
+      <c r="AE36">
         <v>0.71</v>
       </c>
-      <c r="AD36" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE36" t="s">
+      <c r="AF36" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG36" t="s">
         <v>163</v>
       </c>
-      <c r="AF36">
+      <c r="AH36">
         <v>0.12</v>
       </c>
-      <c r="AG36" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s">
+      <c r="AI36" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ36" t="s">
         <v>105</v>
       </c>
-      <c r="AI36">
+      <c r="AK36">
         <v>0.04</v>
       </c>
-      <c r="AJ36" t="s">
+      <c r="AL36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:38">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5268,68 +5574,76 @@
       <c r="P37" t="s">
         <v>39</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R37">
         <v>299</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>36</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>0.1</v>
       </c>
-      <c r="T37" t="s">
-        <v>39</v>
-      </c>
       <c r="U37" t="s">
+        <v>39</v>
+      </c>
+      <c r="V37" t="s">
         <v>150</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.06</v>
       </c>
-      <c r="W37" t="s">
-        <v>39</v>
-      </c>
       <c r="X37" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y37" t="s">
         <v>149</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>0.05</v>
       </c>
-      <c r="Z37" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA37">
+      <c r="AA37" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB37" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC37">
         <v>331</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AD37" t="s">
         <v>150</v>
       </c>
-      <c r="AC37">
+      <c r="AE37">
         <v>0.41</v>
       </c>
-      <c r="AD37" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE37" t="s">
+      <c r="AF37" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG37" t="s">
         <v>149</v>
       </c>
-      <c r="AF37">
+      <c r="AH37">
         <v>0.11</v>
       </c>
-      <c r="AG37" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH37" t="s">
+      <c r="AI37" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ37" t="s">
         <v>47</v>
       </c>
-      <c r="AI37">
+      <c r="AK37">
         <v>0.06</v>
       </c>
-      <c r="AJ37" t="s">
+      <c r="AL37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:38">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5378,68 +5692,76 @@
       <c r="P38" t="s">
         <v>39</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R38">
         <v>299</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>42</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.23</v>
       </c>
-      <c r="T38" t="s">
-        <v>39</v>
-      </c>
       <c r="U38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V38" t="s">
         <v>55</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.21</v>
       </c>
-      <c r="W38" t="s">
-        <v>39</v>
-      </c>
       <c r="X38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y38" t="s">
         <v>36</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>0.13</v>
       </c>
-      <c r="Z38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA38">
+      <c r="AA38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB38" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC38">
         <v>331</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AD38" t="s">
         <v>149</v>
       </c>
-      <c r="AC38">
+      <c r="AE38">
         <v>0.81</v>
       </c>
-      <c r="AD38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE38" t="s">
+      <c r="AF38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG38" t="s">
         <v>147</v>
       </c>
-      <c r="AF38">
+      <c r="AH38">
         <v>0.06</v>
       </c>
-      <c r="AG38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH38" t="s">
+      <c r="AI38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ38" t="s">
         <v>72</v>
       </c>
-      <c r="AI38">
+      <c r="AK38">
         <v>0.02</v>
       </c>
-      <c r="AJ38" t="s">
+      <c r="AL38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:38">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5488,68 +5810,76 @@
       <c r="P39" t="s">
         <v>39</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R39">
         <v>299</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>148</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>0.39</v>
       </c>
-      <c r="T39" t="s">
-        <v>39</v>
-      </c>
       <c r="U39" t="s">
+        <v>39</v>
+      </c>
+      <c r="V39" t="s">
         <v>63</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.19</v>
       </c>
-      <c r="W39" t="s">
-        <v>39</v>
-      </c>
       <c r="X39" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y39" t="s">
         <v>150</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z39" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA39">
+      <c r="AA39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB39" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC39">
         <v>331</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AD39" t="s">
         <v>148</v>
       </c>
-      <c r="AC39">
+      <c r="AE39">
         <v>0.92</v>
       </c>
-      <c r="AD39" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE39" t="s">
+      <c r="AF39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG39" t="s">
         <v>47</v>
       </c>
-      <c r="AF39">
+      <c r="AH39">
         <v>0.03</v>
       </c>
-      <c r="AG39" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH39" t="s">
+      <c r="AI39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ39" t="s">
         <v>147</v>
       </c>
-      <c r="AI39">
+      <c r="AK39">
         <v>0.01</v>
       </c>
-      <c r="AJ39" t="s">
+      <c r="AL39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:38">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5598,68 +5928,76 @@
       <c r="P40" t="s">
         <v>39</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R40">
         <v>299</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>147</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>0.18</v>
       </c>
-      <c r="T40" t="s">
-        <v>39</v>
-      </c>
       <c r="U40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V40" t="s">
         <v>148</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0.11</v>
       </c>
-      <c r="W40" t="s">
-        <v>39</v>
-      </c>
       <c r="X40" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y40" t="s">
         <v>42</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>0.08</v>
       </c>
-      <c r="Z40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA40">
+      <c r="AA40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB40" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC40">
         <v>331</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AD40" t="s">
         <v>149</v>
       </c>
-      <c r="AC40">
+      <c r="AE40">
         <v>0.23</v>
       </c>
-      <c r="AD40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE40" t="s">
+      <c r="AF40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG40" t="s">
         <v>147</v>
       </c>
-      <c r="AF40">
+      <c r="AH40">
         <v>0.22</v>
       </c>
-      <c r="AG40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH40" t="s">
+      <c r="AI40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ40" t="s">
         <v>55</v>
       </c>
-      <c r="AI40">
+      <c r="AK40">
         <v>0.09</v>
       </c>
-      <c r="AJ40" t="s">
+      <c r="AL40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:38">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5708,68 +6046,76 @@
       <c r="P41" t="s">
         <v>39</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R41">
         <v>299</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>40</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>0.27</v>
       </c>
-      <c r="T41" t="s">
-        <v>39</v>
-      </c>
       <c r="U41" t="s">
+        <v>39</v>
+      </c>
+      <c r="V41" t="s">
         <v>36</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0.13</v>
       </c>
-      <c r="W41" t="s">
-        <v>39</v>
-      </c>
       <c r="X41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y41" t="s">
         <v>71</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>0.05</v>
       </c>
-      <c r="Z41" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA41">
+      <c r="AA41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB41" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC41">
         <v>331</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AD41" t="s">
         <v>149</v>
       </c>
-      <c r="AC41">
+      <c r="AE41">
         <v>0.92</v>
       </c>
-      <c r="AD41" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE41" t="s">
+      <c r="AF41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG41" t="s">
         <v>143</v>
       </c>
-      <c r="AF41">
+      <c r="AH41">
         <v>0.01</v>
       </c>
-      <c r="AG41" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH41" t="s">
+      <c r="AI41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ41" t="s">
         <v>47</v>
       </c>
-      <c r="AI41">
+      <c r="AK41">
         <v>0.01</v>
       </c>
-      <c r="AJ41" t="s">
+      <c r="AL41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:38">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5818,68 +6164,76 @@
       <c r="P42" t="s">
         <v>39</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R42">
         <v>299</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>172</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>0.66</v>
       </c>
-      <c r="T42" t="s">
-        <v>39</v>
-      </c>
       <c r="U42" t="s">
+        <v>39</v>
+      </c>
+      <c r="V42" t="s">
         <v>62</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0.2</v>
       </c>
-      <c r="W42" t="s">
-        <v>41</v>
-      </c>
       <c r="X42" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y42" t="s">
         <v>173</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>0.02</v>
       </c>
-      <c r="Z42" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA42">
+      <c r="AA42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB42" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC42">
         <v>331</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AD42" t="s">
         <v>172</v>
       </c>
-      <c r="AC42">
+      <c r="AE42">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AD42" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE42" t="s">
+      <c r="AF42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG42" t="s">
         <v>62</v>
       </c>
-      <c r="AF42">
+      <c r="AH42">
         <v>0.25</v>
       </c>
-      <c r="AG42" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH42" t="s">
+      <c r="AI42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ42" t="s">
         <v>173</v>
       </c>
-      <c r="AI42">
+      <c r="AK42">
         <v>0.01</v>
       </c>
-      <c r="AJ42" t="s">
+      <c r="AL42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:38">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5928,68 +6282,76 @@
       <c r="P43" t="s">
         <v>39</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R43">
         <v>299</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>172</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>0.54</v>
       </c>
-      <c r="T43" t="s">
-        <v>39</v>
-      </c>
       <c r="U43" t="s">
+        <v>39</v>
+      </c>
+      <c r="V43" t="s">
         <v>175</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0.1</v>
       </c>
-      <c r="W43" t="s">
-        <v>39</v>
-      </c>
       <c r="X43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y43" t="s">
         <v>173</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>0.06</v>
       </c>
-      <c r="Z43" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA43">
+      <c r="AA43" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB43" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC43">
         <v>331</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AD43" t="s">
         <v>172</v>
       </c>
-      <c r="AC43">
+      <c r="AE43">
         <v>0.39</v>
       </c>
-      <c r="AD43" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE43" t="s">
+      <c r="AF43" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG43" t="s">
         <v>62</v>
       </c>
-      <c r="AF43">
+      <c r="AH43">
         <v>0.32</v>
       </c>
-      <c r="AG43" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH43" t="s">
+      <c r="AI43" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ43" t="s">
         <v>59</v>
       </c>
-      <c r="AI43">
+      <c r="AK43">
         <v>0.05</v>
       </c>
-      <c r="AJ43" t="s">
+      <c r="AL43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:38">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6038,68 +6400,76 @@
       <c r="P44" t="s">
         <v>39</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R44">
         <v>299</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>172</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>0.4</v>
       </c>
-      <c r="T44" t="s">
-        <v>39</v>
-      </c>
       <c r="U44" t="s">
+        <v>39</v>
+      </c>
+      <c r="V44" t="s">
         <v>173</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0.1</v>
       </c>
-      <c r="W44" t="s">
-        <v>39</v>
-      </c>
       <c r="X44" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y44" t="s">
         <v>62</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>0.09</v>
       </c>
-      <c r="Z44" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA44">
+      <c r="AA44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB44" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC44">
         <v>331</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AD44" t="s">
         <v>172</v>
       </c>
-      <c r="AC44">
+      <c r="AE44">
         <v>0.8</v>
       </c>
-      <c r="AD44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE44" t="s">
+      <c r="AF44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG44" t="s">
         <v>62</v>
       </c>
-      <c r="AF44">
+      <c r="AH44">
         <v>0.05</v>
       </c>
-      <c r="AG44" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH44" t="s">
+      <c r="AI44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ44" t="s">
         <v>173</v>
       </c>
-      <c r="AI44">
+      <c r="AK44">
         <v>0.01</v>
       </c>
-      <c r="AJ44" t="s">
+      <c r="AL44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:38">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6148,68 +6518,76 @@
       <c r="P45" t="s">
         <v>39</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R45">
         <v>299</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>180</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>0.3</v>
       </c>
-      <c r="T45" t="s">
-        <v>39</v>
-      </c>
       <c r="U45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V45" t="s">
         <v>172</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>0.11</v>
       </c>
-      <c r="W45" t="s">
-        <v>39</v>
-      </c>
       <c r="X45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y45" t="s">
         <v>181</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>0.03</v>
       </c>
-      <c r="Z45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA45">
+      <c r="AA45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB45" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC45">
         <v>331</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AD45" t="s">
         <v>173</v>
       </c>
-      <c r="AC45">
+      <c r="AE45">
         <v>0.26</v>
       </c>
-      <c r="AD45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE45" t="s">
+      <c r="AF45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG45" t="s">
         <v>178</v>
       </c>
-      <c r="AF45">
+      <c r="AH45">
         <v>0.18</v>
       </c>
-      <c r="AG45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH45" t="s">
+      <c r="AI45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ45" t="s">
         <v>172</v>
       </c>
-      <c r="AI45">
+      <c r="AK45">
         <v>0.15</v>
       </c>
-      <c r="AJ45" t="s">
+      <c r="AL45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:38">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6258,68 +6636,76 @@
       <c r="P46" t="s">
         <v>39</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R46">
         <v>299</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>185</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>0.83</v>
       </c>
-      <c r="T46" t="s">
-        <v>39</v>
-      </c>
       <c r="U46" t="s">
+        <v>39</v>
+      </c>
+      <c r="V46" t="s">
         <v>160</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>0.03</v>
       </c>
-      <c r="W46" t="s">
-        <v>39</v>
-      </c>
       <c r="X46" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y46" t="s">
         <v>186</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>0.02</v>
       </c>
-      <c r="Z46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA46">
+      <c r="AA46" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB46" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC46">
         <v>331</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AD46" t="s">
         <v>160</v>
       </c>
-      <c r="AC46">
+      <c r="AE46">
         <v>0.78</v>
       </c>
-      <c r="AD46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE46" t="s">
+      <c r="AF46" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG46" t="s">
         <v>187</v>
       </c>
-      <c r="AF46">
+      <c r="AH46">
         <v>0.06</v>
       </c>
-      <c r="AG46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH46" t="s">
+      <c r="AI46" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ46" t="s">
         <v>133</v>
       </c>
-      <c r="AI46">
+      <c r="AK46">
         <v>0.04</v>
       </c>
-      <c r="AJ46" t="s">
+      <c r="AL46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:38">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6368,68 +6754,76 @@
       <c r="P47" t="s">
         <v>39</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R47">
         <v>299</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>172</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>0.56999999999999995</v>
       </c>
-      <c r="T47" t="s">
-        <v>39</v>
-      </c>
       <c r="U47" t="s">
+        <v>39</v>
+      </c>
+      <c r="V47" t="s">
         <v>62</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>0.39</v>
       </c>
-      <c r="W47" t="s">
-        <v>41</v>
-      </c>
       <c r="X47" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y47" t="s">
         <v>175</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>0.01</v>
       </c>
-      <c r="Z47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA47">
+      <c r="AA47" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB47" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC47">
         <v>331</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AD47" t="s">
         <v>172</v>
       </c>
-      <c r="AC47">
+      <c r="AE47">
         <v>0.46</v>
       </c>
-      <c r="AD47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE47" t="s">
+      <c r="AF47" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG47" t="s">
         <v>62</v>
       </c>
-      <c r="AF47">
+      <c r="AH47">
         <v>0.34</v>
       </c>
-      <c r="AG47" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH47" t="s">
+      <c r="AI47" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ47" t="s">
         <v>173</v>
       </c>
-      <c r="AI47">
+      <c r="AK47">
         <v>0.01</v>
       </c>
-      <c r="AJ47" t="s">
+      <c r="AL47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:38">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6478,68 +6872,76 @@
       <c r="P48" t="s">
         <v>39</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R48">
         <v>299</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>62</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>0.87</v>
       </c>
-      <c r="T48" t="s">
-        <v>41</v>
-      </c>
       <c r="U48" t="s">
+        <v>41</v>
+      </c>
+      <c r="V48" t="s">
         <v>172</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>0.1</v>
       </c>
-      <c r="W48" t="s">
-        <v>39</v>
-      </c>
       <c r="X48" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y48" t="s">
         <v>175</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>0</v>
       </c>
-      <c r="Z48" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA48">
+      <c r="AA48" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB48" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC48">
         <v>331</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AD48" t="s">
         <v>62</v>
       </c>
-      <c r="AC48">
+      <c r="AE48">
         <v>0.53</v>
       </c>
-      <c r="AD48" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE48" t="s">
+      <c r="AF48" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s">
         <v>59</v>
       </c>
-      <c r="AF48">
+      <c r="AH48">
         <v>0.27</v>
       </c>
-      <c r="AG48" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH48" t="s">
+      <c r="AI48" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ48" t="s">
         <v>172</v>
       </c>
-      <c r="AI48">
+      <c r="AK48">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ48" t="s">
+      <c r="AL48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:38">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6588,68 +6990,76 @@
       <c r="P49" t="s">
         <v>39</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R49">
         <v>299</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>62</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>0.79</v>
       </c>
-      <c r="T49" t="s">
-        <v>41</v>
-      </c>
       <c r="U49" t="s">
+        <v>41</v>
+      </c>
+      <c r="V49" t="s">
         <v>172</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>0.2</v>
       </c>
-      <c r="W49" t="s">
-        <v>39</v>
-      </c>
       <c r="X49" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y49" t="s">
         <v>173</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>0</v>
       </c>
-      <c r="Z49" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA49">
+      <c r="AA49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB49" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC49">
         <v>331</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AD49" t="s">
         <v>62</v>
       </c>
-      <c r="AC49">
+      <c r="AE49">
         <v>0.53</v>
       </c>
-      <c r="AD49" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE49" t="s">
+      <c r="AF49" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s">
         <v>172</v>
       </c>
-      <c r="AF49">
+      <c r="AH49">
         <v>0.27</v>
       </c>
-      <c r="AG49" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH49" t="s">
+      <c r="AI49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ49" t="s">
         <v>173</v>
       </c>
-      <c r="AI49">
+      <c r="AK49">
         <v>0.01</v>
       </c>
-      <c r="AJ49" t="s">
+      <c r="AL49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:38">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6698,68 +7108,76 @@
       <c r="P50" t="s">
         <v>39</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R50">
         <v>299</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>172</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>0.68</v>
       </c>
-      <c r="T50" t="s">
-        <v>39</v>
-      </c>
       <c r="U50" t="s">
+        <v>39</v>
+      </c>
+      <c r="V50" t="s">
         <v>62</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>0.21</v>
       </c>
-      <c r="W50" t="s">
-        <v>41</v>
-      </c>
       <c r="X50" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y50" t="s">
         <v>175</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>0.02</v>
       </c>
-      <c r="Z50" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA50">
+      <c r="AA50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB50" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC50">
         <v>331</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AD50" t="s">
         <v>62</v>
       </c>
-      <c r="AC50">
+      <c r="AE50">
         <v>0.46</v>
       </c>
-      <c r="AD50" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE50" t="s">
+      <c r="AF50" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s">
         <v>172</v>
       </c>
-      <c r="AF50">
+      <c r="AH50">
         <v>0.37</v>
       </c>
-      <c r="AG50" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH50" t="s">
+      <c r="AI50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ50" t="s">
         <v>173</v>
       </c>
-      <c r="AI50">
+      <c r="AK50">
         <v>0.01</v>
       </c>
-      <c r="AJ50" t="s">
+      <c r="AL50" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:38">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6808,68 +7226,76 @@
       <c r="P51" t="s">
         <v>41</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R51">
         <v>299</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>62</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>0.48</v>
       </c>
-      <c r="T51" t="s">
-        <v>41</v>
-      </c>
       <c r="U51" t="s">
+        <v>41</v>
+      </c>
+      <c r="V51" t="s">
         <v>85</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>0.3</v>
       </c>
-      <c r="W51" t="s">
-        <v>39</v>
-      </c>
       <c r="X51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y51" t="s">
         <v>173</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>0.08</v>
       </c>
-      <c r="Z51" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA51">
+      <c r="AA51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB51" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC51">
         <v>331</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AD51" t="s">
         <v>62</v>
       </c>
-      <c r="AC51">
+      <c r="AE51">
         <v>0.91</v>
       </c>
-      <c r="AD51" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE51" t="s">
+      <c r="AF51" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s">
         <v>194</v>
       </c>
-      <c r="AF51">
+      <c r="AH51">
         <v>0.02</v>
       </c>
-      <c r="AG51" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH51" t="s">
+      <c r="AI51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ51" t="s">
         <v>172</v>
       </c>
-      <c r="AI51">
+      <c r="AK51">
         <v>0.01</v>
       </c>
-      <c r="AJ51" t="s">
+      <c r="AL51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:38">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6918,68 +7344,76 @@
       <c r="P52" t="s">
         <v>39</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R52">
         <v>299</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>195</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>0.81</v>
       </c>
-      <c r="T52" t="s">
-        <v>41</v>
-      </c>
       <c r="U52" t="s">
+        <v>41</v>
+      </c>
+      <c r="V52" t="s">
         <v>200</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>0.19</v>
       </c>
-      <c r="W52" t="s">
-        <v>39</v>
-      </c>
       <c r="X52" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y52" t="s">
         <v>201</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>0</v>
       </c>
-      <c r="Z52" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA52">
+      <c r="AA52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB52" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC52">
         <v>331</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AD52" t="s">
         <v>195</v>
       </c>
-      <c r="AC52">
+      <c r="AE52">
         <v>0.51</v>
       </c>
-      <c r="AD52" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE52" t="s">
+      <c r="AF52" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s">
         <v>200</v>
       </c>
-      <c r="AF52">
+      <c r="AH52">
         <v>0.46</v>
       </c>
-      <c r="AG52" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH52" t="s">
+      <c r="AI52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ52" t="s">
         <v>201</v>
       </c>
-      <c r="AI52">
+      <c r="AK52">
         <v>0</v>
       </c>
-      <c r="AJ52" t="s">
+      <c r="AL52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:38">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7028,68 +7462,76 @@
       <c r="P53" t="s">
         <v>39</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R53">
         <v>299</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>206</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>0.14000000000000001</v>
       </c>
-      <c r="T53" t="s">
-        <v>39</v>
-      </c>
       <c r="U53" t="s">
+        <v>39</v>
+      </c>
+      <c r="V53" t="s">
         <v>183</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W53" t="s">
-        <v>39</v>
-      </c>
       <c r="X53" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y53" t="s">
         <v>207</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z53" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA53">
+      <c r="AA53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB53" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC53">
         <v>331</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AD53" t="s">
         <v>204</v>
       </c>
-      <c r="AC53">
+      <c r="AE53">
         <v>0.8</v>
       </c>
-      <c r="AD53" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE53" t="s">
+      <c r="AF53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG53" t="s">
         <v>203</v>
       </c>
-      <c r="AF53">
+      <c r="AH53">
         <v>0.04</v>
       </c>
-      <c r="AG53" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH53" t="s">
+      <c r="AI53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ53" t="s">
         <v>206</v>
       </c>
-      <c r="AI53">
+      <c r="AK53">
         <v>0.01</v>
       </c>
-      <c r="AJ53" t="s">
+      <c r="AL53" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:38">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7138,68 +7580,76 @@
       <c r="P54" t="s">
         <v>39</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R54">
         <v>299</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>201</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>0.26</v>
       </c>
-      <c r="T54" t="s">
-        <v>39</v>
-      </c>
       <c r="U54" t="s">
+        <v>39</v>
+      </c>
+      <c r="V54" t="s">
         <v>209</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>0.16</v>
       </c>
-      <c r="W54" t="s">
-        <v>39</v>
-      </c>
       <c r="X54" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y54" t="s">
         <v>77</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z54" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA54">
+      <c r="AA54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB54" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC54">
         <v>331</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AD54" t="s">
         <v>204</v>
       </c>
-      <c r="AC54">
+      <c r="AE54">
         <v>0.68</v>
       </c>
-      <c r="AD54" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE54" t="s">
+      <c r="AF54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG54" t="s">
         <v>210</v>
       </c>
-      <c r="AF54">
+      <c r="AH54">
         <v>0.06</v>
       </c>
-      <c r="AG54" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH54" t="s">
+      <c r="AI54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ54" t="s">
         <v>201</v>
       </c>
-      <c r="AI54">
+      <c r="AK54">
         <v>0.04</v>
       </c>
-      <c r="AJ54" t="s">
+      <c r="AL54" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:38">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7248,68 +7698,76 @@
       <c r="P55" t="s">
         <v>39</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R55">
         <v>299</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>195</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>0.08</v>
       </c>
-      <c r="T55" t="s">
-        <v>41</v>
-      </c>
       <c r="U55" t="s">
+        <v>41</v>
+      </c>
+      <c r="V55" t="s">
         <v>200</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>0.08</v>
       </c>
-      <c r="W55" t="s">
-        <v>39</v>
-      </c>
       <c r="X55" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y55" t="s">
         <v>212</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>0.04</v>
       </c>
-      <c r="Z55" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA55">
+      <c r="AA55" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB55" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC55">
         <v>331</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AD55" t="s">
         <v>195</v>
       </c>
-      <c r="AC55">
+      <c r="AE55">
         <v>0.81</v>
       </c>
-      <c r="AD55" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE55" t="s">
+      <c r="AF55" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="s">
         <v>200</v>
       </c>
-      <c r="AF55">
+      <c r="AH55">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AG55" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH55" t="s">
+      <c r="AI55" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ55" t="s">
         <v>213</v>
       </c>
-      <c r="AI55">
+      <c r="AK55">
         <v>0.01</v>
       </c>
-      <c r="AJ55" t="s">
+      <c r="AL55" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:38">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7358,68 +7816,76 @@
       <c r="P56" t="s">
         <v>39</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R56">
         <v>299</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>116</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>0.09</v>
       </c>
-      <c r="T56" t="s">
-        <v>39</v>
-      </c>
       <c r="U56" t="s">
+        <v>39</v>
+      </c>
+      <c r="V56" t="s">
         <v>63</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>0.06</v>
       </c>
-      <c r="W56" t="s">
-        <v>39</v>
-      </c>
       <c r="X56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y56" t="s">
         <v>79</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>0.03</v>
       </c>
-      <c r="Z56" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA56">
+      <c r="AA56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB56" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC56">
         <v>331</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AD56" t="s">
         <v>217</v>
       </c>
-      <c r="AC56">
+      <c r="AE56">
         <v>0.49</v>
       </c>
-      <c r="AD56" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE56" t="s">
+      <c r="AF56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG56" t="s">
         <v>218</v>
       </c>
-      <c r="AF56">
+      <c r="AH56">
         <v>0.05</v>
       </c>
-      <c r="AG56" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH56" t="s">
+      <c r="AI56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ56" t="s">
         <v>219</v>
       </c>
-      <c r="AI56">
+      <c r="AK56">
         <v>0.04</v>
       </c>
-      <c r="AJ56" t="s">
+      <c r="AL56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:38">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7468,68 +7934,76 @@
       <c r="P57" t="s">
         <v>39</v>
       </c>
-      <c r="Q57">
+      <c r="Q57" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R57">
         <v>299</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>195</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>0.55000000000000004</v>
       </c>
-      <c r="T57" t="s">
-        <v>41</v>
-      </c>
       <c r="U57" t="s">
+        <v>41</v>
+      </c>
+      <c r="V57" t="s">
         <v>200</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>0.21</v>
       </c>
-      <c r="W57" t="s">
-        <v>39</v>
-      </c>
       <c r="X57" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y57" t="s">
         <v>221</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z57" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA57">
+      <c r="AA57" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB57" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC57">
         <v>331</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AD57" t="s">
         <v>195</v>
       </c>
-      <c r="AC57">
+      <c r="AE57">
         <v>0.83</v>
       </c>
-      <c r="AD57" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE57" t="s">
+      <c r="AF57" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s">
         <v>200</v>
       </c>
-      <c r="AF57">
+      <c r="AH57">
         <v>0.1</v>
       </c>
-      <c r="AG57" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH57" t="s">
+      <c r="AI57" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ57" t="s">
         <v>213</v>
       </c>
-      <c r="AI57">
+      <c r="AK57">
         <v>0.01</v>
       </c>
-      <c r="AJ57" t="s">
+      <c r="AL57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:38">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7578,68 +8052,76 @@
       <c r="P58" t="s">
         <v>39</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R58">
         <v>299</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>221</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>0.61</v>
       </c>
-      <c r="T58" t="s">
-        <v>39</v>
-      </c>
       <c r="U58" t="s">
+        <v>39</v>
+      </c>
+      <c r="V58" t="s">
         <v>195</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>0.15</v>
       </c>
-      <c r="W58" t="s">
-        <v>41</v>
-      </c>
       <c r="X58" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y58" t="s">
         <v>200</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>0.05</v>
       </c>
-      <c r="Z58" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA58">
+      <c r="AA58" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB58" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC58">
         <v>331</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AD58" t="s">
         <v>195</v>
       </c>
-      <c r="AC58">
+      <c r="AE58">
         <v>0.33</v>
       </c>
-      <c r="AD58" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE58" t="s">
+      <c r="AF58" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG58" t="s">
         <v>200</v>
       </c>
-      <c r="AF58">
+      <c r="AH58">
         <v>0.31</v>
       </c>
-      <c r="AG58" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH58" t="s">
+      <c r="AI58" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ58" t="s">
         <v>221</v>
       </c>
-      <c r="AI58">
+      <c r="AK58">
         <v>0.21</v>
       </c>
-      <c r="AJ58" t="s">
+      <c r="AL58" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:38">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7688,68 +8170,76 @@
       <c r="P59" t="s">
         <v>39</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R59">
         <v>299</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>116</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T59" t="s">
-        <v>39</v>
-      </c>
       <c r="U59" t="s">
+        <v>39</v>
+      </c>
+      <c r="V59" t="s">
         <v>224</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>0.05</v>
       </c>
-      <c r="W59" t="s">
-        <v>39</v>
-      </c>
       <c r="X59" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y59" t="s">
         <v>194</v>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>0.05</v>
       </c>
-      <c r="Z59" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA59">
+      <c r="AA59" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB59" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC59">
         <v>331</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AD59" t="s">
         <v>63</v>
       </c>
-      <c r="AC59">
+      <c r="AE59">
         <v>0.45</v>
       </c>
-      <c r="AD59" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE59" t="s">
+      <c r="AF59" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG59" t="s">
         <v>184</v>
       </c>
-      <c r="AF59">
+      <c r="AH59">
         <v>0.2</v>
       </c>
-      <c r="AG59" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH59" t="s">
+      <c r="AI59" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ59" t="s">
         <v>47</v>
       </c>
-      <c r="AI59">
+      <c r="AK59">
         <v>0.04</v>
       </c>
-      <c r="AJ59" t="s">
+      <c r="AL59" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:38">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7798,68 +8288,76 @@
       <c r="P60" t="s">
         <v>39</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R60">
         <v>299</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>195</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>0.39</v>
       </c>
-      <c r="T60" t="s">
-        <v>41</v>
-      </c>
       <c r="U60" t="s">
+        <v>41</v>
+      </c>
+      <c r="V60" t="s">
         <v>200</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>0.35</v>
       </c>
-      <c r="W60" t="s">
-        <v>39</v>
-      </c>
       <c r="X60" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y60" t="s">
         <v>201</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>0.03</v>
       </c>
-      <c r="Z60" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA60">
+      <c r="AA60" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB60" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC60">
         <v>331</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AD60" t="s">
         <v>195</v>
       </c>
-      <c r="AC60">
+      <c r="AE60">
         <v>0.73</v>
       </c>
-      <c r="AD60" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE60" t="s">
+      <c r="AF60" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="s">
         <v>200</v>
       </c>
-      <c r="AF60">
+      <c r="AH60">
         <v>0.25</v>
       </c>
-      <c r="AG60" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH60" t="s">
+      <c r="AI60" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ60" t="s">
         <v>201</v>
       </c>
-      <c r="AI60">
+      <c r="AK60">
         <v>0</v>
       </c>
-      <c r="AJ60" t="s">
+      <c r="AL60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:38">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7908,68 +8406,76 @@
       <c r="P61" t="s">
         <v>39</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="R61">
         <v>299</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>197</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>0.51</v>
       </c>
-      <c r="T61" t="s">
-        <v>39</v>
-      </c>
       <c r="U61" t="s">
+        <v>39</v>
+      </c>
+      <c r="V61" t="s">
         <v>95</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>0.08</v>
       </c>
-      <c r="W61" t="s">
-        <v>39</v>
-      </c>
       <c r="X61" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y61" t="s">
         <v>229</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>0.04</v>
       </c>
-      <c r="Z61" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA61">
+      <c r="AA61" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB61" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="AC61">
         <v>331</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AD61" t="s">
         <v>195</v>
       </c>
-      <c r="AC61">
+      <c r="AE61">
         <v>0.34</v>
       </c>
-      <c r="AD61" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE61" t="s">
+      <c r="AF61" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s">
         <v>95</v>
       </c>
-      <c r="AF61">
+      <c r="AH61">
         <v>0.27</v>
       </c>
-      <c r="AG61" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH61" t="s">
+      <c r="AI61" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ61" t="s">
         <v>200</v>
       </c>
-      <c r="AI61">
+      <c r="AK61">
         <v>0.21</v>
       </c>
-      <c r="AJ61" t="s">
+      <c r="AL61" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:38">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8018,68 +8524,76 @@
       <c r="P62" t="s">
         <v>39</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R62">
         <v>299</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>230</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>1</v>
       </c>
-      <c r="T62" t="s">
-        <v>41</v>
-      </c>
       <c r="U62" t="s">
+        <v>41</v>
+      </c>
+      <c r="V62" t="s">
         <v>233</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>0</v>
       </c>
-      <c r="W62" t="s">
-        <v>39</v>
-      </c>
       <c r="X62" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y62" t="s">
         <v>234</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>0</v>
       </c>
-      <c r="Z62" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA62">
+      <c r="AA62" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB62" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC62">
         <v>331</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AD62" t="s">
         <v>230</v>
       </c>
-      <c r="AC62">
+      <c r="AE62">
         <v>0.9</v>
       </c>
-      <c r="AD62" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE62" t="s">
+      <c r="AF62" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s">
         <v>235</v>
       </c>
-      <c r="AF62">
+      <c r="AH62">
         <v>0</v>
       </c>
-      <c r="AG62" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH62" t="s">
+      <c r="AI62" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ62" t="s">
         <v>236</v>
       </c>
-      <c r="AI62">
+      <c r="AK62">
         <v>0</v>
       </c>
-      <c r="AJ62" t="s">
+      <c r="AL62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:38">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8128,68 +8642,76 @@
       <c r="P63" t="s">
         <v>39</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R63">
         <v>299</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>230</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>1</v>
       </c>
-      <c r="T63" t="s">
-        <v>41</v>
-      </c>
       <c r="U63" t="s">
+        <v>41</v>
+      </c>
+      <c r="V63" t="s">
         <v>233</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>0</v>
       </c>
-      <c r="W63" t="s">
-        <v>39</v>
-      </c>
       <c r="X63" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y63" t="s">
         <v>238</v>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>0</v>
       </c>
-      <c r="Z63" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA63">
+      <c r="AA63" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB63" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC63">
         <v>331</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AD63" t="s">
         <v>230</v>
       </c>
-      <c r="AC63">
+      <c r="AE63">
         <v>0.92</v>
       </c>
-      <c r="AD63" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE63" t="s">
+      <c r="AF63" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="s">
         <v>133</v>
       </c>
-      <c r="AF63">
+      <c r="AH63">
         <v>0</v>
       </c>
-      <c r="AG63" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH63" t="s">
+      <c r="AI63" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ63" t="s">
         <v>235</v>
       </c>
-      <c r="AI63">
+      <c r="AK63">
         <v>0</v>
       </c>
-      <c r="AJ63" t="s">
+      <c r="AL63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:38">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8238,68 +8760,76 @@
       <c r="P64" t="s">
         <v>39</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R64">
         <v>299</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>230</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>1</v>
       </c>
-      <c r="T64" t="s">
-        <v>41</v>
-      </c>
       <c r="U64" t="s">
+        <v>41</v>
+      </c>
+      <c r="V64" t="s">
         <v>233</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>0</v>
       </c>
-      <c r="W64" t="s">
-        <v>39</v>
-      </c>
       <c r="X64" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y64" t="s">
         <v>240</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>0</v>
       </c>
-      <c r="Z64" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA64">
+      <c r="AA64" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB64" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC64">
         <v>331</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AD64" t="s">
         <v>230</v>
       </c>
-      <c r="AC64">
+      <c r="AE64">
         <v>0.91</v>
       </c>
-      <c r="AD64" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE64" t="s">
+      <c r="AF64" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s">
         <v>235</v>
       </c>
-      <c r="AF64">
+      <c r="AH64">
         <v>0</v>
       </c>
-      <c r="AG64" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH64" t="s">
+      <c r="AI64" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ64" t="s">
         <v>133</v>
       </c>
-      <c r="AI64">
+      <c r="AK64">
         <v>0</v>
       </c>
-      <c r="AJ64" t="s">
+      <c r="AL64" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:38">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8348,68 +8878,76 @@
       <c r="P65" t="s">
         <v>39</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R65">
         <v>299</v>
       </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
         <v>230</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>0.78</v>
       </c>
-      <c r="T65" t="s">
-        <v>41</v>
-      </c>
       <c r="U65" t="s">
+        <v>41</v>
+      </c>
+      <c r="V65" t="s">
         <v>233</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>0.03</v>
       </c>
-      <c r="W65" t="s">
-        <v>39</v>
-      </c>
       <c r="X65" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y65" t="s">
         <v>242</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <v>0.01</v>
       </c>
-      <c r="Z65" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA65">
+      <c r="AA65" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB65" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC65">
         <v>331</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AD65" t="s">
         <v>230</v>
       </c>
-      <c r="AC65">
+      <c r="AE65">
         <v>0.93</v>
       </c>
-      <c r="AD65" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE65" t="s">
+      <c r="AF65" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s">
         <v>233</v>
       </c>
-      <c r="AF65">
+      <c r="AH65">
         <v>0</v>
       </c>
-      <c r="AG65" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH65" t="s">
+      <c r="AI65" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ65" t="s">
         <v>236</v>
       </c>
-      <c r="AI65">
+      <c r="AK65">
         <v>0</v>
       </c>
-      <c r="AJ65" t="s">
+      <c r="AL65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:38">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8458,68 +8996,76 @@
       <c r="P66" t="s">
         <v>39</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R66">
         <v>299</v>
       </c>
-      <c r="R66" t="s">
+      <c r="S66" t="s">
         <v>230</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>1</v>
       </c>
-      <c r="T66" t="s">
-        <v>41</v>
-      </c>
       <c r="U66" t="s">
+        <v>41</v>
+      </c>
+      <c r="V66" t="s">
         <v>233</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>0</v>
       </c>
-      <c r="W66" t="s">
-        <v>39</v>
-      </c>
       <c r="X66" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y66" t="s">
         <v>245</v>
       </c>
-      <c r="Y66">
+      <c r="Z66">
         <v>0</v>
       </c>
-      <c r="Z66" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA66">
+      <c r="AA66" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB66" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="AC66">
         <v>331</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AD66" t="s">
         <v>230</v>
       </c>
-      <c r="AC66">
+      <c r="AE66">
         <v>0.83</v>
       </c>
-      <c r="AD66" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE66" t="s">
+      <c r="AF66" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s">
         <v>235</v>
       </c>
-      <c r="AF66">
+      <c r="AH66">
         <v>0</v>
       </c>
-      <c r="AG66" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH66" t="s">
+      <c r="AI66" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ66" t="s">
         <v>236</v>
       </c>
-      <c r="AI66">
+      <c r="AK66">
         <v>0</v>
       </c>
-      <c r="AJ66" t="s">
+      <c r="AL66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:38">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8568,68 +9114,76 @@
       <c r="P67" t="s">
         <v>39</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="R67">
         <v>299</v>
       </c>
-      <c r="R67" t="s">
+      <c r="S67" t="s">
         <v>230</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>1</v>
       </c>
-      <c r="T67" t="s">
-        <v>41</v>
-      </c>
       <c r="U67" t="s">
+        <v>41</v>
+      </c>
+      <c r="V67" t="s">
         <v>233</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>0</v>
       </c>
-      <c r="W67" t="s">
-        <v>39</v>
-      </c>
       <c r="X67" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y67" t="s">
         <v>245</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <v>0</v>
       </c>
-      <c r="Z67" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA67">
+      <c r="AA67" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB67" t="str">
+        <f t="shared" ref="AB67:AB81" si="2">IF(OR(U67="yes", X67="yes", AA67="yes"), "yes", "no")</f>
+        <v>yes</v>
+      </c>
+      <c r="AC67">
         <v>331</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AD67" t="s">
         <v>230</v>
       </c>
-      <c r="AC67">
+      <c r="AE67">
         <v>0.89</v>
       </c>
-      <c r="AD67" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE67" t="s">
+      <c r="AF67" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s">
         <v>235</v>
       </c>
-      <c r="AF67">
+      <c r="AH67">
         <v>0</v>
       </c>
-      <c r="AG67" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH67" t="s">
+      <c r="AI67" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ67" t="s">
         <v>236</v>
       </c>
-      <c r="AI67">
+      <c r="AK67">
         <v>0</v>
       </c>
-      <c r="AJ67" t="s">
+      <c r="AL67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:38">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8678,68 +9232,76 @@
       <c r="P68" t="s">
         <v>39</v>
       </c>
-      <c r="Q68">
+      <c r="Q68" t="str">
+        <f t="shared" ref="Q68:Q81" si="3">IF(OR(J68="yes", M68="yes", P68="yes"), "yes", "no")</f>
+        <v>yes</v>
+      </c>
+      <c r="R68">
         <v>299</v>
       </c>
-      <c r="R68" t="s">
+      <c r="S68" t="s">
         <v>230</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>1</v>
       </c>
-      <c r="T68" t="s">
-        <v>41</v>
-      </c>
       <c r="U68" t="s">
+        <v>41</v>
+      </c>
+      <c r="V68" t="s">
         <v>233</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>0</v>
       </c>
-      <c r="W68" t="s">
-        <v>39</v>
-      </c>
       <c r="X68" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y68" t="s">
         <v>249</v>
       </c>
-      <c r="Y68">
+      <c r="Z68">
         <v>0</v>
       </c>
-      <c r="Z68" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA68">
+      <c r="AA68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB68" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="AC68">
         <v>331</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AD68" t="s">
         <v>230</v>
       </c>
-      <c r="AC68">
+      <c r="AE68">
         <v>0.89</v>
       </c>
-      <c r="AD68" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE68" t="s">
+      <c r="AF68" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s">
         <v>235</v>
       </c>
-      <c r="AF68">
+      <c r="AH68">
         <v>0</v>
       </c>
-      <c r="AG68" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH68" t="s">
+      <c r="AI68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ68" t="s">
         <v>234</v>
       </c>
-      <c r="AI68">
+      <c r="AK68">
         <v>0</v>
       </c>
-      <c r="AJ68" t="s">
+      <c r="AL68" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:38">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8788,68 +9350,76 @@
       <c r="P69" t="s">
         <v>39</v>
       </c>
-      <c r="Q69">
+      <c r="Q69" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+      <c r="R69">
         <v>299</v>
       </c>
-      <c r="R69" t="s">
+      <c r="S69" t="s">
         <v>230</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>1</v>
       </c>
-      <c r="T69" t="s">
-        <v>41</v>
-      </c>
       <c r="U69" t="s">
+        <v>41</v>
+      </c>
+      <c r="V69" t="s">
         <v>233</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>0</v>
       </c>
-      <c r="W69" t="s">
-        <v>39</v>
-      </c>
       <c r="X69" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y69" t="s">
         <v>245</v>
       </c>
-      <c r="Y69">
+      <c r="Z69">
         <v>0</v>
       </c>
-      <c r="Z69" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA69">
+      <c r="AA69" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB69" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="AC69">
         <v>331</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AD69" t="s">
         <v>230</v>
       </c>
-      <c r="AC69">
+      <c r="AE69">
         <v>0.89</v>
       </c>
-      <c r="AD69" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE69" t="s">
+      <c r="AF69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s">
         <v>235</v>
       </c>
-      <c r="AF69">
+      <c r="AH69">
         <v>0</v>
       </c>
-      <c r="AG69" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH69" t="s">
+      <c r="AI69" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ69" t="s">
         <v>233</v>
       </c>
-      <c r="AI69">
+      <c r="AK69">
         <v>0</v>
       </c>
-      <c r="AJ69" t="s">
+      <c r="AL69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:38">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8898,68 +9468,76 @@
       <c r="P70" t="s">
         <v>39</v>
       </c>
-      <c r="Q70">
+      <c r="Q70" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+      <c r="R70">
         <v>299</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" t="s">
         <v>230</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>1</v>
       </c>
-      <c r="T70" t="s">
-        <v>41</v>
-      </c>
       <c r="U70" t="s">
+        <v>41</v>
+      </c>
+      <c r="V70" t="s">
         <v>233</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>0</v>
       </c>
-      <c r="W70" t="s">
-        <v>39</v>
-      </c>
       <c r="X70" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y70" t="s">
         <v>240</v>
       </c>
-      <c r="Y70">
+      <c r="Z70">
         <v>0</v>
       </c>
-      <c r="Z70" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA70">
+      <c r="AA70" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB70" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="AC70">
         <v>331</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AD70" t="s">
         <v>230</v>
       </c>
-      <c r="AC70">
+      <c r="AE70">
         <v>0.89</v>
       </c>
-      <c r="AD70" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE70" t="s">
+      <c r="AF70" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s">
         <v>235</v>
       </c>
-      <c r="AF70">
+      <c r="AH70">
         <v>0</v>
       </c>
-      <c r="AG70" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH70" t="s">
+      <c r="AI70" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ70" t="s">
         <v>133</v>
       </c>
-      <c r="AI70">
+      <c r="AK70">
         <v>0</v>
       </c>
-      <c r="AJ70" t="s">
+      <c r="AL70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:38">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9008,68 +9586,76 @@
       <c r="P71" t="s">
         <v>39</v>
       </c>
-      <c r="Q71">
+      <c r="Q71" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+      <c r="R71">
         <v>299</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>230</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>0.96</v>
       </c>
-      <c r="T71" t="s">
-        <v>41</v>
-      </c>
       <c r="U71" t="s">
+        <v>41</v>
+      </c>
+      <c r="V71" t="s">
         <v>224</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>0.01</v>
       </c>
-      <c r="W71" t="s">
-        <v>39</v>
-      </c>
       <c r="X71" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y71" t="s">
         <v>258</v>
       </c>
-      <c r="Y71">
+      <c r="Z71">
         <v>0.01</v>
       </c>
-      <c r="Z71" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA71">
+      <c r="AA71" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB71" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="AC71">
         <v>331</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AD71" t="s">
         <v>230</v>
       </c>
-      <c r="AC71">
+      <c r="AE71">
         <v>0.99</v>
       </c>
-      <c r="AD71" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE71" t="s">
+      <c r="AF71" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s">
         <v>259</v>
       </c>
-      <c r="AF71">
+      <c r="AH71">
         <v>0</v>
       </c>
-      <c r="AG71" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH71" t="s">
+      <c r="AI71" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ71" t="s">
         <v>260</v>
       </c>
-      <c r="AI71">
+      <c r="AK71">
         <v>0</v>
       </c>
-      <c r="AJ71" t="s">
+      <c r="AL71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:38">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9118,68 +9704,76 @@
       <c r="P72" t="s">
         <v>39</v>
       </c>
-      <c r="Q72">
+      <c r="Q72" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+      <c r="R72">
         <v>299</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>261</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <v>0.91</v>
       </c>
-      <c r="T72" t="s">
-        <v>41</v>
-      </c>
       <c r="U72" t="s">
+        <v>41</v>
+      </c>
+      <c r="V72" t="s">
         <v>263</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>0.05</v>
       </c>
-      <c r="W72" t="s">
-        <v>39</v>
-      </c>
       <c r="X72" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y72" t="s">
         <v>265</v>
       </c>
-      <c r="Y72">
+      <c r="Z72">
         <v>0.02</v>
       </c>
-      <c r="Z72" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA72">
+      <c r="AA72" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB72" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="AC72">
         <v>331</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AD72" t="s">
         <v>261</v>
       </c>
-      <c r="AC72">
+      <c r="AE72">
         <v>0.84</v>
       </c>
-      <c r="AD72" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE72" t="s">
+      <c r="AF72" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s">
         <v>265</v>
       </c>
-      <c r="AF72">
+      <c r="AH72">
         <v>0.03</v>
       </c>
-      <c r="AG72" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH72" t="s">
+      <c r="AI72" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ72" t="s">
         <v>266</v>
       </c>
-      <c r="AI72">
+      <c r="AK72">
         <v>0.03</v>
       </c>
-      <c r="AJ72" t="s">
+      <c r="AL72" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:38">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9228,68 +9822,76 @@
       <c r="P73" t="s">
         <v>39</v>
       </c>
-      <c r="Q73">
+      <c r="Q73" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+      <c r="R73">
         <v>299</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>261</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <v>0.83</v>
       </c>
-      <c r="T73" t="s">
-        <v>41</v>
-      </c>
       <c r="U73" t="s">
+        <v>41</v>
+      </c>
+      <c r="V73" t="s">
         <v>263</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>0.12</v>
       </c>
-      <c r="W73" t="s">
-        <v>39</v>
-      </c>
       <c r="X73" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y73" t="s">
         <v>265</v>
       </c>
-      <c r="Y73">
+      <c r="Z73">
         <v>0.01</v>
       </c>
-      <c r="Z73" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA73">
+      <c r="AA73" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB73" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="AC73">
         <v>331</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AD73" t="s">
         <v>261</v>
       </c>
-      <c r="AC73">
+      <c r="AE73">
         <v>0.82</v>
       </c>
-      <c r="AD73" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE73" t="s">
+      <c r="AF73" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s">
         <v>263</v>
       </c>
-      <c r="AF73">
+      <c r="AH73">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AG73" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH73" t="s">
+      <c r="AI73" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ73" t="s">
         <v>265</v>
       </c>
-      <c r="AI73">
+      <c r="AK73">
         <v>0.02</v>
       </c>
-      <c r="AJ73" t="s">
+      <c r="AL73" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:38">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9338,68 +9940,76 @@
       <c r="P74" t="s">
         <v>39</v>
       </c>
-      <c r="Q74">
+      <c r="Q74" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+      <c r="R74">
         <v>299</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>261</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <v>0.84</v>
       </c>
-      <c r="T74" t="s">
-        <v>41</v>
-      </c>
       <c r="U74" t="s">
+        <v>41</v>
+      </c>
+      <c r="V74" t="s">
         <v>263</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>0.1</v>
       </c>
-      <c r="W74" t="s">
-        <v>39</v>
-      </c>
       <c r="X74" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y74" t="s">
         <v>265</v>
       </c>
-      <c r="Y74">
+      <c r="Z74">
         <v>0.01</v>
       </c>
-      <c r="Z74" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA74">
+      <c r="AA74" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB74" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="AC74">
         <v>331</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AD74" t="s">
         <v>261</v>
       </c>
-      <c r="AC74">
+      <c r="AE74">
         <v>0.84</v>
       </c>
-      <c r="AD74" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE74" t="s">
+      <c r="AF74" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s">
         <v>263</v>
       </c>
-      <c r="AF74">
+      <c r="AH74">
         <v>0.03</v>
       </c>
-      <c r="AG74" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH74" t="s">
+      <c r="AI74" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ74" t="s">
         <v>265</v>
       </c>
-      <c r="AI74">
+      <c r="AK74">
         <v>0.02</v>
       </c>
-      <c r="AJ74" t="s">
+      <c r="AL74" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:38">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9448,68 +10058,76 @@
       <c r="P75" t="s">
         <v>41</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+      <c r="R75">
         <v>299</v>
       </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>263</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <v>0.87</v>
       </c>
-      <c r="T75" t="s">
-        <v>39</v>
-      </c>
       <c r="U75" t="s">
+        <v>39</v>
+      </c>
+      <c r="V75" t="s">
         <v>261</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>0.1</v>
       </c>
-      <c r="W75" t="s">
-        <v>41</v>
-      </c>
       <c r="X75" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y75" t="s">
         <v>264</v>
       </c>
-      <c r="Y75">
+      <c r="Z75">
         <v>0.02</v>
       </c>
-      <c r="Z75" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA75">
+      <c r="AA75" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB75" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="AC75">
         <v>331</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AD75" t="s">
         <v>263</v>
       </c>
-      <c r="AC75">
+      <c r="AE75">
         <v>0.63</v>
       </c>
-      <c r="AD75" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE75" t="s">
+      <c r="AF75" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG75" t="s">
         <v>261</v>
       </c>
-      <c r="AF75">
+      <c r="AH75">
         <v>0.22</v>
       </c>
-      <c r="AG75" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH75" t="s">
+      <c r="AI75" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ75" t="s">
         <v>270</v>
       </c>
-      <c r="AI75">
+      <c r="AK75">
         <v>0.01</v>
       </c>
-      <c r="AJ75" t="s">
+      <c r="AL75" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:38">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9558,68 +10176,76 @@
       <c r="P76" t="s">
         <v>39</v>
       </c>
-      <c r="Q76">
+      <c r="Q76" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+      <c r="R76">
         <v>299</v>
       </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
         <v>58</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <v>0.14000000000000001</v>
       </c>
-      <c r="T76" t="s">
-        <v>39</v>
-      </c>
       <c r="U76" t="s">
+        <v>39</v>
+      </c>
+      <c r="V76" t="s">
         <v>134</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>0.06</v>
       </c>
-      <c r="W76" t="s">
-        <v>39</v>
-      </c>
       <c r="X76" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y76" t="s">
         <v>273</v>
       </c>
-      <c r="Y76">
+      <c r="Z76">
         <v>0.04</v>
       </c>
-      <c r="Z76" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA76">
+      <c r="AA76" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB76" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="AC76">
         <v>331</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AD76" t="s">
         <v>197</v>
       </c>
-      <c r="AC76">
+      <c r="AE76">
         <v>0.66</v>
       </c>
-      <c r="AD76" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE76" t="s">
+      <c r="AF76" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG76" t="s">
         <v>46</v>
       </c>
-      <c r="AF76">
+      <c r="AH76">
         <v>0.1</v>
       </c>
-      <c r="AG76" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH76" t="s">
+      <c r="AI76" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ76" t="s">
         <v>141</v>
       </c>
-      <c r="AI76">
+      <c r="AK76">
         <v>0.04</v>
       </c>
-      <c r="AJ76" t="s">
+      <c r="AL76" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:38">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9668,68 +10294,76 @@
       <c r="P77" t="s">
         <v>39</v>
       </c>
-      <c r="Q77">
+      <c r="Q77" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+      <c r="R77">
         <v>299</v>
       </c>
-      <c r="R77" t="s">
+      <c r="S77" t="s">
         <v>261</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <v>0.57999999999999996</v>
       </c>
-      <c r="T77" t="s">
-        <v>41</v>
-      </c>
       <c r="U77" t="s">
+        <v>41</v>
+      </c>
+      <c r="V77" t="s">
         <v>263</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>0.11</v>
       </c>
-      <c r="W77" t="s">
-        <v>39</v>
-      </c>
       <c r="X77" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y77" t="s">
         <v>265</v>
       </c>
-      <c r="Y77">
+      <c r="Z77">
         <v>0.04</v>
       </c>
-      <c r="Z77" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA77">
+      <c r="AA77" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB77" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="AC77">
         <v>331</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AD77" t="s">
         <v>261</v>
       </c>
-      <c r="AC77">
+      <c r="AE77">
         <v>0.72</v>
       </c>
-      <c r="AD77" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE77" t="s">
+      <c r="AF77" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s">
         <v>263</v>
       </c>
-      <c r="AF77">
+      <c r="AH77">
         <v>0.1</v>
       </c>
-      <c r="AG77" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH77" t="s">
+      <c r="AI77" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ77" t="s">
         <v>265</v>
       </c>
-      <c r="AI77">
+      <c r="AK77">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ77" t="s">
+      <c r="AL77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:38">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9778,68 +10412,76 @@
       <c r="P78" t="s">
         <v>39</v>
       </c>
-      <c r="Q78">
+      <c r="Q78" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+      <c r="R78">
         <v>299</v>
       </c>
-      <c r="R78" t="s">
+      <c r="S78" t="s">
         <v>263</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <v>0.38</v>
       </c>
-      <c r="T78" t="s">
-        <v>39</v>
-      </c>
       <c r="U78" t="s">
+        <v>39</v>
+      </c>
+      <c r="V78" t="s">
         <v>261</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>0.18</v>
       </c>
-      <c r="W78" t="s">
-        <v>41</v>
-      </c>
       <c r="X78" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y78" t="s">
         <v>265</v>
       </c>
-      <c r="Y78">
+      <c r="Z78">
         <v>0.02</v>
       </c>
-      <c r="Z78" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA78">
+      <c r="AA78" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB78" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="AC78">
         <v>331</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AD78" t="s">
         <v>263</v>
       </c>
-      <c r="AC78">
+      <c r="AE78">
         <v>0.76</v>
       </c>
-      <c r="AD78" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE78" t="s">
+      <c r="AF78" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG78" t="s">
         <v>261</v>
       </c>
-      <c r="AF78">
+      <c r="AH78">
         <v>0.15</v>
       </c>
-      <c r="AG78" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH78" t="s">
+      <c r="AI78" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ78" t="s">
         <v>265</v>
       </c>
-      <c r="AI78">
+      <c r="AK78">
         <v>0.01</v>
       </c>
-      <c r="AJ78" t="s">
+      <c r="AL78" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:38">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9888,68 +10530,76 @@
       <c r="P79" t="s">
         <v>39</v>
       </c>
-      <c r="Q79">
+      <c r="Q79" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+      <c r="R79">
         <v>299</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
         <v>263</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <v>0.43</v>
       </c>
-      <c r="T79" t="s">
-        <v>39</v>
-      </c>
       <c r="U79" t="s">
+        <v>39</v>
+      </c>
+      <c r="V79" t="s">
         <v>264</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>0.03</v>
       </c>
-      <c r="W79" t="s">
-        <v>39</v>
-      </c>
       <c r="X79" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y79" t="s">
         <v>261</v>
       </c>
-      <c r="Y79">
+      <c r="Z79">
         <v>0.03</v>
       </c>
-      <c r="Z79" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA79">
+      <c r="AA79" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB79" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="AC79">
         <v>331</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AD79" t="s">
         <v>261</v>
       </c>
-      <c r="AC79">
+      <c r="AE79">
         <v>0.71</v>
       </c>
-      <c r="AD79" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE79" t="s">
+      <c r="AF79" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s">
         <v>263</v>
       </c>
-      <c r="AF79">
+      <c r="AH79">
         <v>0.12</v>
       </c>
-      <c r="AG79" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH79" t="s">
+      <c r="AI79" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ79" t="s">
         <v>265</v>
       </c>
-      <c r="AI79">
+      <c r="AK79">
         <v>0.02</v>
       </c>
-      <c r="AJ79" t="s">
+      <c r="AL79" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:38">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9998,68 +10648,76 @@
       <c r="P80" t="s">
         <v>39</v>
       </c>
-      <c r="Q80">
+      <c r="Q80" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+      <c r="R80">
         <v>299</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
         <v>261</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <v>0.8</v>
       </c>
-      <c r="T80" t="s">
-        <v>41</v>
-      </c>
       <c r="U80" t="s">
+        <v>41</v>
+      </c>
+      <c r="V80" t="s">
         <v>263</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>0.13</v>
       </c>
-      <c r="W80" t="s">
-        <v>39</v>
-      </c>
       <c r="X80" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y80" t="s">
         <v>265</v>
       </c>
-      <c r="Y80">
+      <c r="Z80">
         <v>0.01</v>
       </c>
-      <c r="Z80" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA80">
+      <c r="AA80" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB80" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="AC80">
         <v>331</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AD80" t="s">
         <v>261</v>
       </c>
-      <c r="AC80">
+      <c r="AE80">
         <v>0.72</v>
       </c>
-      <c r="AD80" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE80" t="s">
+      <c r="AF80" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s">
         <v>263</v>
       </c>
-      <c r="AF80">
+      <c r="AH80">
         <v>0.1</v>
       </c>
-      <c r="AG80" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH80" t="s">
+      <c r="AI80" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ80" t="s">
         <v>265</v>
       </c>
-      <c r="AI80">
+      <c r="AK80">
         <v>0.05</v>
       </c>
-      <c r="AJ80" t="s">
+      <c r="AL80" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:38">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10108,64 +10766,72 @@
       <c r="P81" t="s">
         <v>41</v>
       </c>
-      <c r="Q81">
+      <c r="Q81" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+      <c r="R81">
         <v>299</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
         <v>263</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <v>0.16</v>
       </c>
-      <c r="T81" t="s">
-        <v>39</v>
-      </c>
       <c r="U81" t="s">
+        <v>39</v>
+      </c>
+      <c r="V81" t="s">
         <v>264</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>0.06</v>
       </c>
-      <c r="W81" t="s">
-        <v>39</v>
-      </c>
       <c r="X81" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y81" t="s">
         <v>270</v>
       </c>
-      <c r="Y81">
+      <c r="Z81">
         <v>0.05</v>
       </c>
-      <c r="Z81" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA81">
+      <c r="AA81" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB81" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="AC81">
         <v>331</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AD81" t="s">
         <v>263</v>
       </c>
-      <c r="AC81">
+      <c r="AE81">
         <v>0.51</v>
       </c>
-      <c r="AD81" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE81" t="s">
+      <c r="AF81" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG81" t="s">
         <v>261</v>
       </c>
-      <c r="AF81">
+      <c r="AH81">
         <v>0.39</v>
       </c>
-      <c r="AG81" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH81" t="s">
+      <c r="AI81" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ81" t="s">
         <v>264</v>
       </c>
-      <c r="AI81">
+      <c r="AK81">
         <v>0.03</v>
       </c>
-      <c r="AJ81" t="s">
+      <c r="AL81" t="s">
         <v>39</v>
       </c>
     </row>
